--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -1,21 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="TMS"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://rmgtestingserver/domain/Online_Tourism_Management_System/</t>
+  </si>
+  <si>
+    <t>Admin username</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Admin password</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>User username</t>
+  </si>
+  <si>
+    <t>anuj@gmail.com</t>
+  </si>
+  <si>
+    <t>User password</t>
+  </si>
+  <si>
+    <t>Packagename</t>
+  </si>
+  <si>
+    <t>Packagetype</t>
+  </si>
+  <si>
+    <t>PackageLocation</t>
+  </si>
+  <si>
+    <t>Package price</t>
+  </si>
+  <si>
+    <t>Package feature</t>
+  </si>
+  <si>
+    <t>Package details</t>
+  </si>
+  <si>
+    <t>Packageimage path</t>
+  </si>
+  <si>
+    <t>NewyorkTour</t>
+  </si>
+  <si>
+    <t>FamilyTour</t>
+  </si>
+  <si>
+    <t>Newyork</t>
+  </si>
+  <si>
+    <t>$200</t>
+  </si>
+  <si>
+    <t>staying is free</t>
+  </si>
+  <si>
+    <t>free pick up and drop</t>
+  </si>
+  <si>
+    <t>C:/Users/user/Desktop/TMS/pic.png</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>I am intrested</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Budarpumadhu</t>
+  </si>
+  <si>
+    <t>Budarpumadhu@gmail.com</t>
+  </si>
+  <si>
+    <t>madhu@123</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +137,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffc000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +184,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="24">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -60,10 +293,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -101,71 +334,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -189,54 +422,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -246,7 +478,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -255,7 +487,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -264,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -272,10 +504,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -304,7 +536,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -317,13 +549,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -341,13 +572,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="21" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="23" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="23" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="23" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="23" width="38.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="4">
+        <v>44614</v>
+      </c>
+      <c r="B12" s="4">
+        <v>117662</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="19">
+        <v>8971064683</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="TMS"/>
+    <sheet name="TMS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>key</t>
   </si>
@@ -122,14 +127,31 @@
   </si>
   <si>
     <t>madhu@123</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Dont Worry macha ur issue will be solved soon</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>See, I am fed Up by ur service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +184,15 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,11 +201,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,90 +234,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,10 +344,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -334,71 +385,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,7 +477,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -449,11 +500,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -462,13 +513,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -478,7 +529,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -487,7 +538,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -496,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,10 +555,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -576,237 +627,224 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="21" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="23" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="23" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="23" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>44614</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>117662</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="8">
         <v>8971064683</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TMS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TMS" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="TMS"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -30,7 +25,7 @@
     <t>Url</t>
   </si>
   <si>
-    <t xml:space="preserve"> http://rmgtestingserver/domain/Online_Tourism_Management_System/</t>
+    <t>Online_Tourism_Management_System/</t>
   </si>
   <si>
     <t>Admin username</t>
@@ -138,26 +133,33 @@
     <t>remarks</t>
   </si>
   <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>See, I am fed Up by ur service</t>
+  </si>
+  <si>
     <t>Dont Worry macha ur issue will be solved soon</t>
-  </si>
-  <si>
-    <t>Refund</t>
-  </si>
-  <si>
-    <t>See, I am fed Up by ur service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -180,19 +182,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,13 +202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffc000"/>
       </patternFill>
     </fill>
   </fills>
@@ -235,18 +230,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -254,86 +241,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -344,10 +336,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -385,71 +377,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,7 +469,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -500,11 +492,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -513,13 +505,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -529,7 +521,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -538,7 +530,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -547,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -555,10 +547,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -629,222 +621,274 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="22" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="52.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="38.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="5">
         <v>44614</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>117662</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>8971064683</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>